--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/137.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/137.xlsx
@@ -479,13 +479,13 @@
         <v>-17.3785836556771</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.93434022685457</v>
+        <v>-5.807758950063275</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.754542292192471</v>
+        <v>-3.795766398094298</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.024571555714786</v>
+        <v>-7.441435261663505</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.30631227660604</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.606994236639062</v>
+        <v>-6.47278610913538</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.742368665093853</v>
+        <v>-3.753246705372739</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.934178707752396</v>
+        <v>-7.322979514285023</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.11507009240712</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.099718126700485</v>
+        <v>-6.99708320554334</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.852806441210595</v>
+        <v>-3.884120530193185</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.513680116135907</v>
+        <v>-6.936567078544666</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.81722184644498</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.643722809788978</v>
+        <v>-7.5502841105485</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.600783026227996</v>
+        <v>-3.629549942632924</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.11695187590636</v>
+        <v>-6.529933710402749</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.41135658638237</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.410353309569309</v>
+        <v>-8.35953208318773</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.61096682753178</v>
+        <v>-3.669703356030896</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.708411795086346</v>
+        <v>-6.073662255541045</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.91304761231871</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.154631269954107</v>
+        <v>-9.138834888767105</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.540105562002715</v>
+        <v>-3.61489758905278</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.264929982188491</v>
+        <v>-5.651784963988087</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.33066707670634</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.794978722362027</v>
+        <v>-9.758408950997502</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.435021248405245</v>
+        <v>-3.526973689558181</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.71027215313699</v>
+        <v>-5.10778516990646</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.66588630105595</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.44587665158875</v>
+        <v>-10.42945936652965</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.312424512210486</v>
+        <v>-3.396754991657902</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.192726775212241</v>
+        <v>-4.602530755245136</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.93126535711203</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.73063685655221</v>
+        <v>-10.7474843742156</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.152553987662367</v>
+        <v>-3.254392000700205</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.004915576419704</v>
+        <v>-4.45696546478961</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.11799410569347</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.46546925567013</v>
+        <v>-11.46365054511563</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.209183354201843</v>
+        <v>-3.301585583986535</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.394459511996102</v>
+        <v>-3.887875287466976</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.24423640146354</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.07817915225938</v>
+        <v>-12.11346800382477</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.869676050342668</v>
+        <v>-2.982939672428487</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.822680380896665</v>
+        <v>-3.308796869115235</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.30034889224748</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.99237943531067</v>
+        <v>-13.00894339057578</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.739799582923073</v>
+        <v>-2.90325374950464</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.05724279879186</v>
+        <v>-2.570987064815366</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.30800638746778</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.49415287708275</v>
+        <v>-13.5489977561158</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.578437911280544</v>
+        <v>-2.723323629781569</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.559683680939059</v>
+        <v>-2.076097344711901</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.269905663970832</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.34238579047876</v>
+        <v>-14.38479792504925</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.366059452981759</v>
+        <v>-2.492567394670051</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.866442063237987</v>
+        <v>-1.402103747045873</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.206561316035643</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.94230604510416</v>
+        <v>-14.96014603116153</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.043795676342194</v>
+        <v>-2.189111627447506</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.668183056770852</v>
+        <v>-1.191949786871534</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.139439571306419</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.00869133390878</v>
+        <v>-16.05853475891698</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.6671710323494</v>
+        <v>-1.819170255841786</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.29158774681926</v>
+        <v>-0.8224093138289004</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.094260722388734</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.77779567116377</v>
+        <v>-16.9108597710606</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.470637845306286</v>
+        <v>-1.611529245197041</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.129624727332102</v>
+        <v>-0.6733532724703974</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.110684498729784</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.61213402704401</v>
+        <v>-17.74744218109275</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9707466711779669</v>
+        <v>-1.090869569898067</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8273325437438838</v>
+        <v>-0.4058757067814807</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.215267239628315</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.35974140110518</v>
+        <v>-18.50048613078992</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6649392916524368</v>
+        <v>-0.8006825673123303</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.02319593684623</v>
+        <v>-0.5903086018289802</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.450312572954754</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.83242525201911</v>
+        <v>-19.03908846129048</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2472812130256266</v>
+        <v>-0.3515735075106563</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.337999089006884</v>
+        <v>-0.9456856219781609</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.828188069627773</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.44093549170968</v>
+        <v>-19.68496538046488</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2405096691070785</v>
+        <v>0.1398205726829651</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.458733113585349</v>
+        <v>-1.09512789487915</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.371920879501456</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.88875874270536</v>
+        <v>-20.0976708951355</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4420883112368487</v>
+        <v>0.3708603701927648</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.476499764539718</v>
+        <v>-1.129277607844551</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.074756975656346</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.09490860625569</v>
+        <v>-20.31569126735871</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5453636922935601</v>
+        <v>0.5173056818843351</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.987117419734048</v>
+        <v>-1.654708953845634</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.929071842590398</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.66414545378434</v>
+        <v>-20.85584341303607</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8541386989873074</v>
+        <v>0.8321235010655894</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.334789365060971</v>
+        <v>-2.044841923811713</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.912383288677078</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.68686955770175</v>
+        <v>-20.92748691966384</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9005207071337296</v>
+        <v>0.9091106921988991</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.807438992926841</v>
+        <v>-2.562035293242045</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.995613769500094</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.94132280909721</v>
+        <v>-21.20781279539901</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8267944835806521</v>
+        <v>0.8459496124852249</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.146066275549971</v>
+        <v>-2.935990539485502</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.152759514869885</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.0356757526218</v>
+        <v>-21.26036473021148</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8611642018550643</v>
+        <v>0.8711671099047722</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.512458228170311</v>
+        <v>-3.293386719470719</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.351404058383769</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.90904069675497</v>
+        <v>-21.16160190249293</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7282125491161792</v>
+        <v>0.747705019494569</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.817326918377393</v>
+        <v>-3.626802320773717</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.575394980346</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.55210897242211</v>
+        <v>-20.80582887278753</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7455538564731264</v>
+        <v>0.7599324256687233</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.442709120765685</v>
+        <v>-4.296958048049217</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.801853915103783</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.49824678376931</v>
+        <v>-20.74645677339571</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7507264257383225</v>
+        <v>0.7811556044780011</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.611697643120601</v>
+        <v>-4.49168719155844</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.025603707992823</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.3543339776348</v>
+        <v>-20.61361756781477</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5170954545890578</v>
+        <v>0.5459014830489207</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.095601764794108</v>
+        <v>-5.006343166424842</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.237055409455877</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.9585444267237</v>
+        <v>-20.22840782776368</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4153258876473563</v>
+        <v>0.4553277418324544</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.181296277157394</v>
+        <v>-5.085031731947838</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.437977564874971</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.66113636099553</v>
+        <v>-19.92431160064156</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3621432709490555</v>
+        <v>0.4082466057040634</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.487064544627988</v>
+        <v>-5.391489349386668</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.63010769129005</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.09931124787714</v>
+        <v>-19.31857342784454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.153104004340373</v>
+        <v>0.185581676957289</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.310718066938366</v>
+        <v>-5.206802225982089</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.817660445909465</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.73999368819322</v>
+        <v>-18.96928322124467</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1021214407321839</v>
+        <v>0.1067366632145516</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.442814143475541</v>
+        <v>-5.344251765038535</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.007175904085643</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.29535318066791</v>
+        <v>-18.49225793223291</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1423286332056925</v>
+        <v>0.1437317781764971</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.02539562618521</v>
+        <v>-4.94493724017639</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.197937578091866</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.84864462323789</v>
+        <v>-18.07859417221637</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1002345534894258</v>
+        <v>-0.1375670099251883</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.862503695393338</v>
+        <v>-4.741486108416592</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.397164278169534</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.31206634158024</v>
+        <v>-17.55964564932081</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1093672183168229</v>
+        <v>-0.1374350067397816</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.871059457410439</v>
+        <v>-4.770223690780318</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.601225495735216</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.82777109935738</v>
+        <v>-17.05012313166467</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2013685495384284</v>
+        <v>-0.2684506127593684</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.702080713069257</v>
+        <v>-4.546101837987203</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.818407050490128</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.1022718143484</v>
+        <v>-16.30010058821125</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3922793786845902</v>
+        <v>-0.4830682362032008</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.800985321986947</v>
+        <v>-4.623783268095615</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.044701670426801</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.45758781284953</v>
+        <v>-15.65749441463081</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4954520905970963</v>
+        <v>-0.5794012275088929</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.753547288357272</v>
+        <v>-4.485145700370508</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.28171567963307</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.96207718887396</v>
+        <v>-15.14083883595584</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5971092103808588</v>
+        <v>-0.6631352481185452</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.350556230331206</v>
+        <v>-4.059244756166079</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.523043751597616</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.38061782417804</v>
+        <v>-14.55564915902046</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6435889986646193</v>
+        <v>-0.7275332465695489</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.528208072854294</v>
+        <v>-4.228463061843739</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.761850861160324</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.86507205006185</v>
+        <v>-14.03792288784163</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7795816136747254</v>
+        <v>-0.8558550098054656</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.617491116257895</v>
+        <v>-4.319990159399254</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.993959578383741</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.91917633549235</v>
+        <v>-13.08537323492626</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9435784600185205</v>
+        <v>-1.008563139293554</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.522722607149616</v>
+        <v>-4.13553281931742</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.208830575494254</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.55241281835013</v>
+        <v>-12.69395934516105</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.076794119128219</v>
+        <v>-1.157594735617722</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.706016363597124</v>
+        <v>-4.310446817995036</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.410283064555614</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.78766458621356</v>
+        <v>-11.93233029940557</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.193631605233752</v>
+        <v>-1.268032511734464</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.695426774723386</v>
+        <v>-4.23110801455874</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.590004089770376</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.39115635129302</v>
+        <v>-11.5593675215561</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.296207858308495</v>
+        <v>-1.379316086039182</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.661189059634381</v>
+        <v>-4.212881796958881</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.759026103595478</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.82306353137124</v>
+        <v>-10.97034486323705</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.540017741754677</v>
+        <v>-1.621654378418422</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.887525632538209</v>
+        <v>-4.43747299441122</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.915365329453046</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.40629525199421</v>
+        <v>-10.56337415362131</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.495092657654595</v>
+        <v>-1.556268800580302</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.067558421405485</v>
+        <v>-4.604153905524951</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.069263599336233</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.872757932607776</v>
+        <v>-10.0707675997247</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.612746607906903</v>
+        <v>-1.685167466626514</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.078368015588233</v>
+        <v>-4.601460062741281</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.222719838378559</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.322275315420621</v>
+        <v>-9.4951554872416</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.579198242786133</v>
+        <v>-1.667205255397469</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.218946519039505</v>
+        <v>-4.743339042019152</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.3792893984419</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.796599519076192</v>
+        <v>-9.008787306107168</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.674792994054921</v>
+        <v>-1.766789436269659</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.16513810946224</v>
+        <v>-4.696199237808359</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.543420707655036</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.057807024396073</v>
+        <v>-8.24644446534912</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.837323138338641</v>
+        <v>-1.931592968746495</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.342936622191336</v>
+        <v>-4.867544261473127</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.709582907264272</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.7012468645851</v>
+        <v>-7.882135229654086</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.942182557620233</v>
+        <v>-2.048357119749025</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.355579593949177</v>
+        <v>-4.891216832722729</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.885949512277322</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.370070428427148</v>
+        <v>-7.51064893187842</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.822783231916436</v>
+        <v>-1.914774785124308</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.251155296278742</v>
+        <v>-4.821000916100097</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.061403587518335</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.85794207011094</v>
+        <v>-7.067216009049234</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.868094547559004</v>
+        <v>-1.962975503825223</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.485680955684652</v>
+        <v>-5.035667429612598</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.246514634869584</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.372043233635731</v>
+        <v>-6.530398166055106</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.063361481823587</v>
+        <v>-2.182487023142837</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.475878496916487</v>
+        <v>-5.066908183492185</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.43140972887972</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.280848588547166</v>
+        <v>-6.459228893093425</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.10213619528509</v>
+        <v>-2.212334410065353</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.360238817493348</v>
+        <v>-4.98219636150915</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.621980515408861</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.170855712055314</v>
+        <v>-6.350771164757784</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.178522038573769</v>
+        <v>-2.259518215337949</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.342120158044561</v>
+        <v>-4.94866266340898</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.81293684198412</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.919008301319924</v>
+        <v>-6.099784219230972</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.19140457166809</v>
+        <v>-2.2585501919783</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.466824056198961</v>
+        <v>-5.056641269071664</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.003087807401426</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.6303857809316</v>
+        <v>-5.840818414497353</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.335669386297016</v>
+        <v>-2.40059050848278</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.312996344138349</v>
+        <v>-4.950153810503389</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.192157315493388</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.466589383869349</v>
+        <v>-5.673130367969038</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.515785288281029</v>
+        <v>-2.598546396524166</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.120594367897778</v>
+        <v>-4.775938939807742</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.369352378705265</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.292926970949662</v>
+        <v>-5.507481037304225</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.338475676238625</v>
+        <v>-2.420014532765033</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.170066228384091</v>
+        <v>-4.789070812252275</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.537151939468629</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.279203528674232</v>
+        <v>-5.459769219290003</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.434965115764058</v>
+        <v>-2.518259125755689</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.225116445705552</v>
+        <v>-4.876065800442159</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.677276865969672</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.090077187034495</v>
+        <v>-5.287925516924809</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.551734155773455</v>
+        <v>-2.672375289221448</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.14124064389676</v>
+        <v>-4.80741436601694</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.794122324022322</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.192917446480051</v>
+        <v>-5.406782162866378</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.625719496690479</v>
+        <v>-2.747768664116144</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.026666767970608</v>
+        <v>-4.688059041374945</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.870757813394508</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.286395257775465</v>
+        <v>-5.467630742332002</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.612460510067406</v>
+        <v>-2.724208540024481</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.814674541214309</v>
+        <v>-4.455019640056578</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.908783921524318</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.090771426009597</v>
+        <v>-5.304313467942707</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.586201654185206</v>
+        <v>-2.726692155512874</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.859130280655166</v>
+        <v>-4.551504190575144</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.899707078844559</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.569566535507178</v>
+        <v>-5.733856722262988</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.68330710857587</v>
+        <v>-2.826965686353299</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.678857930451412</v>
+        <v>-4.357083054498537</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.842611277676864</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.639503778738397</v>
+        <v>-5.821472614324971</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.656236677553762</v>
+        <v>-2.819651732080394</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.456237002766439</v>
+        <v>-4.188910996290397</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.738761842098347</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.855431656022562</v>
+        <v>-6.010188279387888</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.754681719825962</v>
+        <v>-2.897074044824859</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.445241626322748</v>
+        <v>-4.165375317233068</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.584027118482307</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.009190921987037</v>
+        <v>-6.147588928375666</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.642733240587343</v>
+        <v>-2.791422606430827</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.99567788888245</v>
+        <v>-3.724533568043348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.387867521534853</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.470962509574021</v>
+        <v>-6.617534935444131</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.861535853909255</v>
+        <v>-3.036068510051251</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.808766267353425</v>
+        <v>-3.555017032946806</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.14330699942508</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.660871092312465</v>
+        <v>-6.815182816052902</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.911183718642776</v>
+        <v>-3.078529534690408</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.446989537215453</v>
+        <v>-3.208107772691121</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.864408139620318</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.248979506347398</v>
+        <v>-7.412790570430251</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.917475870480495</v>
+        <v>-3.097391323182966</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.147928987166265</v>
+        <v>-2.983311236950372</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.54592211968847</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.908374529508818</v>
+        <v>-8.046322747265691</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.007458041866065</v>
+        <v>-3.195059013363326</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.865701287759866</v>
+        <v>-2.720522228846827</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.200058213131209</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.649513747485056</v>
+        <v>-8.831023016426141</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.007008253234309</v>
+        <v>-3.226221543133041</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.480462213667569</v>
+        <v>-2.369584426932805</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.828191493872447</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.243904535343974</v>
+        <v>-9.420163010909992</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.08809732112896</v>
+        <v>-3.302221154879234</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.153866776943917</v>
+        <v>-2.05868270225195</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.438477735689776</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.974527499549477</v>
+        <v>-10.17533856760114</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.043656248708703</v>
+        <v>-3.238737400712344</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.793488302769882</v>
+        <v>-1.689166674243651</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.039867624682206</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.86817439773226</v>
+        <v>-11.06925436116161</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.190184673517011</v>
+        <v>-3.382474202599643</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.730811234736032</v>
+        <v>-1.633989342743649</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.635930521335595</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.76400179297769</v>
+        <v>-11.93535659465619</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.202206741402755</v>
+        <v>-3.4407022743846</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.471283194212719</v>
+        <v>-1.405662944044987</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.239543956128115</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.82197310096435</v>
+        <v>-13.03396043871378</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.241201460173269</v>
+        <v>-3.444085467136505</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.242912794452255</v>
+        <v>-1.210606237075681</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.84826937977556</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.18850429934261</v>
+        <v>-14.39676621385946</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.212561657946881</v>
+        <v>-3.431149154966648</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.116864419409454</v>
+        <v>-1.06966105810939</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.47521188342975</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.39767792270235</v>
+        <v>-15.62334959067228</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.140321692481346</v>
+        <v>-3.330225386212923</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.144487308207523</v>
+        <v>-1.067739678410693</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.11569378780741</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.84005228460707</v>
+        <v>-17.03875619069909</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.061388676615004</v>
+        <v>-3.252284838740565</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9844505574259295</v>
+        <v>-0.9272687331104922</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.779188039741227</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.21854199378181</v>
+        <v>-18.43611746638012</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.071108022266431</v>
+        <v>-3.255892925808348</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.299972393596019</v>
+        <v>-1.24944939663332</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.464224761020311</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.73615328236147</v>
+        <v>-19.95368475389799</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.031893298186906</v>
+        <v>-3.199855129099769</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.175522723798699</v>
+        <v>-1.178573464083654</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.175320190220625</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.51527754825242</v>
+        <v>-21.71062759563375</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.778965416933928</v>
+        <v>-2.950554890942042</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.380240108337029</v>
+        <v>-1.380543226762778</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.916591250338433</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.11077560522892</v>
+        <v>-23.33441344634221</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.745949953561651</v>
+        <v>-2.907604965616194</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.516853627219233</v>
+        <v>-1.504435549777269</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.68861806681002</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.96158248980257</v>
+        <v>-25.18220870268584</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.558392983126193</v>
+        <v>-2.697191888077909</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.80919668183328</v>
+        <v>-1.775643427705642</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.498736171853804</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.84944804642745</v>
+        <v>-27.0906472002067</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.459835493696055</v>
+        <v>-2.569999485428249</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.238251035466869</v>
+        <v>-2.236143873507228</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.342709204396018</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.86922145282512</v>
+        <v>-29.1314800036836</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.631830755274123</v>
+        <v>-2.756114198837968</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.405166618910212</v>
+        <v>-2.402384774002937</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.225914703815</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.07534424496212</v>
+        <v>-31.35709771070243</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.525734417255201</v>
+        <v>-2.618835775021863</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.744952596160801</v>
+        <v>-2.747162427264646</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.141282911387144</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.1911450797363</v>
+        <v>-33.45510989399134</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.638787812045743</v>
+        <v>-2.745441496847492</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.051155985242551</v>
+        <v>-3.070418672298196</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.086576399691917</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.26633782347389</v>
+        <v>-35.49912299643518</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.749416259430294</v>
+        <v>-2.839779773351483</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.383750233391908</v>
+        <v>-3.413592731307557</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.059487770967235</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.40375784661357</v>
+        <v>-37.64576368652585</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.891740138333055</v>
+        <v>-2.975630607162449</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.649277085340926</v>
+        <v>-3.672323863711563</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.048983644486473</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.7560961671194</v>
+        <v>-39.96459764297271</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.833717404836508</v>
+        <v>-2.876872668450767</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.870465534013892</v>
+        <v>-3.868998831953817</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.066630479891915</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.98867581991671</v>
+        <v>-42.22691712454147</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.86564750868433</v>
+        <v>-2.888630729965697</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.267506670682922</v>
+        <v>-4.255381933652973</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.091277346674006</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.00668918384229</v>
+        <v>-44.26272647346262</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.887965825031797</v>
+        <v>-2.883135486247285</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.573578056579265</v>
+        <v>-4.555654957405155</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.165568145672826</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.47911862452358</v>
+        <v>-46.75526439938753</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.056392111597017</v>
+        <v>-2.994199055242992</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.752765047258565</v>
+        <v>-4.72689242291885</v>
       </c>
     </row>
   </sheetData>
